--- a/data/dataPaper-I-in/arphified/Cnidaria.xlsx
+++ b/data/dataPaper-I-in/arphified/Cnidaria.xlsx
@@ -1614,76 +1614,76 @@
     <t>${catalogNumber}</t>
   </si>
   <si>
+    <t>${recordedBy}</t>
+  </si>
+  <si>
+    <t>${individualCount}</t>
+  </si>
+  <si>
+    <t>${sex}</t>
+  </si>
+  <si>
+    <t>PRESENT</t>
+  </si>
+  <si>
+    <t>${taxonName}</t>
+  </si>
+  <si>
+    <t>!references.ref</t>
+  </si>
+  <si>
+    <t>iNaturalist:${iNaturalistTaxonId}</t>
+  </si>
+  <si>
+    <t>${scientificName}</t>
+  </si>
+  <si>
+    <t>${kingdom}</t>
+  </si>
+  <si>
+    <t>${phylum}</t>
+  </si>
+  <si>
+    <t>${class}</t>
+  </si>
+  <si>
+    <t>${order}</t>
+  </si>
+  <si>
+    <t>${family}</t>
+  </si>
+  <si>
+    <t>${genus}</t>
+  </si>
+  <si>
+    <t>${subgenus}</t>
+  </si>
+  <si>
+    <t>Galiano Island</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>British Columbia</t>
+  </si>
+  <si>
+    <t>${locality}</t>
+  </si>
+  <si>
+    <t>${depth}</t>
+  </si>
+  <si>
+    <t>${latitude}</t>
+  </si>
+  <si>
+    <t>${longitude}</t>
+  </si>
+  <si>
     <t>Confidence: ${confidence}</t>
-  </si>
-  <si>
-    <t>${recordedBy}</t>
-  </si>
-  <si>
-    <t>${individualCount}</t>
-  </si>
-  <si>
-    <t>${sex}</t>
-  </si>
-  <si>
-    <t>PRESENT</t>
-  </si>
-  <si>
-    <t>${taxonName}</t>
-  </si>
-  <si>
-    <t>!references.ref</t>
-  </si>
-  <si>
-    <t>iNaturalist:${iNaturalistTaxonId}</t>
-  </si>
-  <si>
-    <t>${scientificName}</t>
-  </si>
-  <si>
-    <t>${kingdom}</t>
-  </si>
-  <si>
-    <t>${phylum}</t>
-  </si>
-  <si>
-    <t>${class}</t>
-  </si>
-  <si>
-    <t>${order}</t>
-  </si>
-  <si>
-    <t>${family}</t>
-  </si>
-  <si>
-    <t>${genus}</t>
-  </si>
-  <si>
-    <t>${subgenus}</t>
-  </si>
-  <si>
-    <t>Galiano Island</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>British Columbia</t>
-  </si>
-  <si>
-    <t>${locality}</t>
-  </si>
-  <si>
-    <t>${depth}</t>
-  </si>
-  <si>
-    <t>${latitude}</t>
-  </si>
-  <si>
-    <t>${longitude}</t>
   </si>
   <si>
     <t>!references.samplingProtocol</t>
@@ -10614,301 +10614,301 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
         <v>533</v>
       </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
         <v>534</v>
       </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>535</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
         <v>536</v>
       </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
         <v>537</v>
       </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
         <v>538</v>
       </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
         <v>539</v>
       </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" t="s">
         <v>540</v>
       </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN2" t="s">
         <v>541</v>
       </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>542</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>543</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>544</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>545</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>546</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>547</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK2" t="s">
         <v>548</v>
       </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>549</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>550</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>551</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ2" t="s">
         <v>552</v>
       </c>
-      <c r="BO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
         <v>553</v>
       </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CH2" t="s">
         <v>554</v>
       </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
+      <c r="CI2" t="s">
         <v>555</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>533</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
         <v>556</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>534</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
       </c>
       <c r="DA2" t="s">
         <v>36</v>
@@ -11031,7 +11031,7 @@
         <v>36</v>
       </c>
       <c r="EO2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="EP2" t="s">
         <v>36</v>

--- a/data/dataPaper-I-in/arphified/Cnidaria.xlsx
+++ b/data/dataPaper-I-in/arphified/Cnidaria.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2938" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2938" uniqueCount="572">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -1681,6 +1681,9 @@
   </si>
   <si>
     <t>${longitude}</t>
+  </si>
+  <si>
+    <t>${coordinateUncertaintyInMeters}</t>
   </si>
   <si>
     <t>Confidence: ${confidence}</t>
@@ -10863,7 +10866,7 @@
         <v>36</v>
       </c>
       <c r="CK2" t="s">
-        <v>36</v>
+        <v>556</v>
       </c>
       <c r="CL2" t="s">
         <v>36</v>
@@ -10908,7 +10911,7 @@
         <v>36</v>
       </c>
       <c r="CZ2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="DA2" t="s">
         <v>36</v>
@@ -10971,13 +10974,13 @@
         <v>36</v>
       </c>
       <c r="DU2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="DV2" t="s">
         <v>36</v>
       </c>
       <c r="DW2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="DX2" t="s">
         <v>36</v>
@@ -10989,13 +10992,13 @@
         <v>36</v>
       </c>
       <c r="EA2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="EB2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="EC2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="ED2" t="s">
         <v>36</v>
@@ -11004,13 +11007,13 @@
         <v>36</v>
       </c>
       <c r="EF2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="EG2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="EH2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="EI2" t="s">
         <v>36</v>
@@ -11043,19 +11046,19 @@
         <v>36</v>
       </c>
       <c r="ES2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="ET2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="EU2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="EV2" t="s">
         <v>36</v>
       </c>
       <c r="EW2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="EX2" t="s">
         <v>36</v>
@@ -11086,10 +11089,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Cnidaria.xlsx
+++ b/data/dataPaper-I-in/arphified/Cnidaria.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2938" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2978" uniqueCount="586">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -249,7 +249,22 @@
     <t>Sanamyan &amp; Sanamyan, 2006</t>
   </si>
   <si>
-    <t>Reported as Urticina crassicornis in collections at the RBCM (986-00197-009), a species commonly conflated with U. grebelnyia. See Sanamyan &amp; Sanamyan, 2006</t>
+    <t>Reported as Urticina crassicornis in collections at the RBCM (986-00197-009). This European species concept is commonly misapplied to U. grebelnyi. See Sanamyan and Sanamyan (2006).</t>
+  </si>
+  <si>
+    <t>47814</t>
+  </si>
+  <si>
+    <t>Haloclavidae</t>
+  </si>
+  <si>
+    <t>Peachia</t>
+  </si>
+  <si>
+    <t>quinquecapitata</t>
+  </si>
+  <si>
+    <t>McMurrich, 1913</t>
   </si>
   <si>
     <t>459981</t>
@@ -312,21 +327,6 @@
     <t>Hand, 1955</t>
   </si>
   <si>
-    <t>47814</t>
-  </si>
-  <si>
-    <t>Haloclavidae</t>
-  </si>
-  <si>
-    <t>Peachia</t>
-  </si>
-  <si>
-    <t>quinquecapitata</t>
-  </si>
-  <si>
-    <t>McMurrich, 1913</t>
-  </si>
-  <si>
     <t>51812</t>
   </si>
   <si>
@@ -432,7 +432,7 @@
     <t>sp.</t>
   </si>
   <si>
-    <t>Both the 'Gulf Island soft coral' and the 'Race Rocks/Browning Passage/Weynton Passage soft coral' are in the genus Alcyonium. However, they are genetically different and have not yet been circumscribed.</t>
+    <t>The genus Alcyonium has been documented from both the southern Gulf Islands and from Race Rocks / Browning Passage / Weynton Passage. However, these populations are genetically different and have not yet been circumscribed as species.</t>
   </si>
   <si>
     <t>460061</t>
@@ -537,7 +537,7 @@
     <t>spp.</t>
   </si>
   <si>
-    <t>Multiple Euphysa species are likely present in the region. "Differences are apparently in the young specimens, but generally we only ever see the adults. Euphysa japonica has four tentacles, all alike, including in the youngest stages. Euphysa flammea has four alike tentacles as an adult, but they develop successively, and it is released with only one tentacle. Euphysa tentaculata (which may well be an Arctic species) is said to have one long tentacle, two half as long, and one bulb without tentacles. I’ve noticed that I see Euphysa medusae both in the spring and in the fall (rarely if ever in the summer)—these could be two different species.” (Claudia Mills pers. comm., 2020).</t>
+    <t>Multiple Euphysa species are likely present in the region. "Differences are apparently in the young specimens, but generally we only ever see the adults. Euphysa japonica has four tentacles, all alike, including in the youngest stages. Euphysa flammea has four tentacles as an adult, but it is released with only one tentacle and the rest develop successively. Euphysa tentaculata (which may well be an Arctic species) is said to have one long tentacle, two half as long, and one bulb without tentacles. I’ve noticed Euphysa medusae both in the spring and in the fall (rarely if ever in the summer)—this seasonality suggests the occurrence of two different species.” (Claudia Mills pers. comm. 2020).</t>
   </si>
   <si>
     <t>324497</t>
@@ -768,7 +768,136 @@
     <t>victoria s.lat.</t>
   </si>
   <si>
-    <t>"Aequorea victoria is our native species, named nearby, whereas A. forskalea is native to Europe or the East Coast. Sarah Abboud's recent molecular analysis of all the Aequorea on the west coast showed they belonged to a 'victoria' clade with many potential species/sub-species within. This is a species complex, though Sarah has not published or renamed anything" (Wyatt Patry, pers. comm. 2020).</t>
+    <t>"Aequorea victoria is our native species, named nearby, whereas A. forskalea is native to Europe or the East Coast. Sarah Abboud's recent molecular analysis of Pacific coast Aequorea showed they belonged to a 'victoria' clade including many potential species or subspecies. This is a species complex, though Sarah has not published or renamed anything" (Wyatt Patry pers. comm. 2020).</t>
+  </si>
+  <si>
+    <t>195428</t>
+  </si>
+  <si>
+    <t>Campanulariidae</t>
+  </si>
+  <si>
+    <t>Clytia</t>
+  </si>
+  <si>
+    <t>gregaria</t>
+  </si>
+  <si>
+    <t>Reported as Phialidium gregarium in CMN collections, an unaccepted synonym (WoRMS Editorial Board 2021).</t>
+  </si>
+  <si>
+    <t>49536</t>
+  </si>
+  <si>
+    <t>Obelia</t>
+  </si>
+  <si>
+    <t>At least two species are present in the genus—O. dichotoma and O. longissima—but they cannot be determined in the field.</t>
+  </si>
+  <si>
+    <t>500952</t>
+  </si>
+  <si>
+    <t>Orthopyxis</t>
+  </si>
+  <si>
+    <t>127158</t>
+  </si>
+  <si>
+    <t>Rhizocaulus</t>
+  </si>
+  <si>
+    <t>verticillatus</t>
+  </si>
+  <si>
+    <t>(Linnaeus, 1758)</t>
+  </si>
+  <si>
+    <t>348053</t>
+  </si>
+  <si>
+    <t>Eirenidae</t>
+  </si>
+  <si>
+    <t>Eutonina</t>
+  </si>
+  <si>
+    <t>indicans</t>
+  </si>
+  <si>
+    <t>(Romanes, 1876)</t>
+  </si>
+  <si>
+    <t>668120</t>
+  </si>
+  <si>
+    <t>Haleciidae</t>
+  </si>
+  <si>
+    <t>Halecium</t>
+  </si>
+  <si>
+    <t>beanii</t>
+  </si>
+  <si>
+    <t>(Johnston, 1838)</t>
+  </si>
+  <si>
+    <t>874028</t>
+  </si>
+  <si>
+    <t>densum</t>
+  </si>
+  <si>
+    <t>Calkins, 1899</t>
+  </si>
+  <si>
+    <t>874029</t>
+  </si>
+  <si>
+    <t>Lafoeidae</t>
+  </si>
+  <si>
+    <t>Grammaria</t>
+  </si>
+  <si>
+    <t>423721</t>
+  </si>
+  <si>
+    <t>Lafoea</t>
+  </si>
+  <si>
+    <t>dumosa</t>
+  </si>
+  <si>
+    <t>(Fleming, 1820)</t>
+  </si>
+  <si>
+    <t>550154</t>
+  </si>
+  <si>
+    <t>Melicertidae</t>
+  </si>
+  <si>
+    <t>Melicertum</t>
+  </si>
+  <si>
+    <t>octocostatum</t>
+  </si>
+  <si>
+    <t>493918</t>
+  </si>
+  <si>
+    <t>Mitrocomidae</t>
+  </si>
+  <si>
+    <t>Mitrocoma</t>
+  </si>
+  <si>
+    <t>cellularia</t>
+  </si>
+  <si>
+    <t>Reported as Halistaura cellularia in CMN collections, an unaccepted synonym (WoRMS Editorial Board 2021).</t>
   </si>
   <si>
     <t>51218</t>
@@ -786,135 +915,6 @@
     <t>At least two other taxa—A. struthionides and A. latirostris—are expected in the region. The former may be more likely to be observed, though it is impossible to be certain without close examination.</t>
   </si>
   <si>
-    <t>195428</t>
-  </si>
-  <si>
-    <t>Campanulariidae</t>
-  </si>
-  <si>
-    <t>Clytia</t>
-  </si>
-  <si>
-    <t>gregaria</t>
-  </si>
-  <si>
-    <t>Reported as Phialidium gregarium (Agassiz, 1862) in CMN collections, an unaccepted synonym according to WoRMS (2021).</t>
-  </si>
-  <si>
-    <t>49536</t>
-  </si>
-  <si>
-    <t>Obelia</t>
-  </si>
-  <si>
-    <t>At least two species are present in the genus—O. dichotoma and O. longissima—but they are impossible to determine in the field.</t>
-  </si>
-  <si>
-    <t>500952</t>
-  </si>
-  <si>
-    <t>Orthopyxis</t>
-  </si>
-  <si>
-    <t>127158</t>
-  </si>
-  <si>
-    <t>Rhizocaulus</t>
-  </si>
-  <si>
-    <t>verticillatus</t>
-  </si>
-  <si>
-    <t>(Linnaeus, 1758)</t>
-  </si>
-  <si>
-    <t>348053</t>
-  </si>
-  <si>
-    <t>Eirenidae</t>
-  </si>
-  <si>
-    <t>Eutonina</t>
-  </si>
-  <si>
-    <t>indicans</t>
-  </si>
-  <si>
-    <t>(Romanes, 1876)</t>
-  </si>
-  <si>
-    <t>668120</t>
-  </si>
-  <si>
-    <t>Haleciidae</t>
-  </si>
-  <si>
-    <t>Halecium</t>
-  </si>
-  <si>
-    <t>beani</t>
-  </si>
-  <si>
-    <t>(Johnston, 1838)</t>
-  </si>
-  <si>
-    <t>874028</t>
-  </si>
-  <si>
-    <t>densum</t>
-  </si>
-  <si>
-    <t>Calkins, 1899</t>
-  </si>
-  <si>
-    <t>874029</t>
-  </si>
-  <si>
-    <t>Lafoeidae</t>
-  </si>
-  <si>
-    <t>Grammaria</t>
-  </si>
-  <si>
-    <t>423721</t>
-  </si>
-  <si>
-    <t>Lafoea</t>
-  </si>
-  <si>
-    <t>dumosa</t>
-  </si>
-  <si>
-    <t>(Fleming, 1820)</t>
-  </si>
-  <si>
-    <t>550154</t>
-  </si>
-  <si>
-    <t>Melicertidae</t>
-  </si>
-  <si>
-    <t>Melicertum</t>
-  </si>
-  <si>
-    <t>octocostatum</t>
-  </si>
-  <si>
-    <t>493918</t>
-  </si>
-  <si>
-    <t>Mitrocomidae</t>
-  </si>
-  <si>
-    <t>Mitrocoma</t>
-  </si>
-  <si>
-    <t>cellularia</t>
-  </si>
-  <si>
-    <t>Reported as Halistaura cellularia (A. Agassiz, 1862) in CMN collections, an unaccepted synonym according to WoRMS (2021).</t>
-  </si>
-  <si>
     <t>209141</t>
   </si>
   <si>
@@ -960,7 +960,7 @@
     <t>55322</t>
   </si>
   <si>
-    <t>Sturdy hydroids with alternating zoantheca structures. The major hydroid reference (1937) shows numerous species in this genus that are found in our area. Henry would be the one to check with for any of these hydroid spp.s</t>
+    <t>Sturdy hydroids with alternating zoantheca structures. According to Fraser (1937), numerous species in this genus are known to the region.</t>
   </si>
   <si>
     <t>873899</t>
@@ -1077,7 +1077,25 @@
     <t>Lindsay, 2017</t>
   </si>
   <si>
-    <t>This cryptic species was recently separated from Aegina citrea (Lindsay, 2017). "Everything from surface waters in the Salish Sea is Solmudaegina nematophora" (Claudia Mills, pers. comm. 2021)</t>
+    <t>This cryptic species was recently separated from Aegina citrea. "Everything from surface waters in the Salish Sea is Solmundaegina nematophora" (Claudia Mills pers. comm. 2021)</t>
+  </si>
+  <si>
+    <t>256085</t>
+  </si>
+  <si>
+    <t>Trachymedusae</t>
+  </si>
+  <si>
+    <t>Rhopalonematidae</t>
+  </si>
+  <si>
+    <t>Aglantha</t>
+  </si>
+  <si>
+    <t>digitale</t>
+  </si>
+  <si>
+    <t>(O. F. Müller, 1776)</t>
   </si>
   <si>
     <t>786996</t>
@@ -1263,6 +1281,15 @@
     <t>order</t>
   </si>
   <si>
+    <t>suborder</t>
+  </si>
+  <si>
+    <t>infraorder</t>
+  </si>
+  <si>
+    <t>superfamily</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
@@ -1635,7 +1662,7 @@
     <t>iNaturalist:${iNaturalistTaxonId}</t>
   </si>
   <si>
-    <t>${scientificName}</t>
+    <t>${summary.taxonName}</t>
   </si>
   <si>
     <t>${kingdom}</t>
@@ -1650,6 +1677,15 @@
     <t>${order}</t>
   </si>
   <si>
+    <t>${suborder}</t>
+  </si>
+  <si>
+    <t>${infraorder}</t>
+  </si>
+  <si>
+    <t>${superfamily}</t>
+  </si>
+  <si>
     <t>${family}</t>
   </si>
   <si>
@@ -1659,6 +1695,9 @@
     <t>${subgenus}</t>
   </si>
   <si>
+    <t>${summary.Author}</t>
+  </si>
+  <si>
     <t>Galiano Island</t>
   </si>
   <si>
@@ -1693,6 +1732,9 @@
   </si>
   <si>
     <t>!Date:YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>!Date:HH:mm:ss</t>
   </si>
   <si>
     <t>!Date:YYYY</t>
@@ -2105,7 +2147,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH77"/>
+  <dimension ref="A1:AH78"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -3186,40 +3228,40 @@
         <v>36</v>
       </c>
       <c r="M11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" t="s">
         <v>80</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" t="s">
         <v>81</v>
       </c>
-      <c r="O11" t="s">
-        <v>36</v>
-      </c>
-      <c r="P11" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>36</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" t="s">
         <v>82</v>
       </c>
-      <c r="S11" t="s">
-        <v>36</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
+        <v>36</v>
+      </c>
+      <c r="V11" t="s">
+        <v>36</v>
+      </c>
+      <c r="W11" t="s">
+        <v>36</v>
+      </c>
+      <c r="X11" t="s">
         <v>83</v>
-      </c>
-      <c r="U11" t="s">
-        <v>36</v>
-      </c>
-      <c r="V11" t="s">
-        <v>36</v>
-      </c>
-      <c r="W11" t="s">
-        <v>36</v>
-      </c>
-      <c r="X11" t="s">
-        <v>84</v>
       </c>
       <c r="Y11" t="s">
         <v>36</v>
@@ -3254,7 +3296,7 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
@@ -3290,10 +3332,10 @@
         <v>36</v>
       </c>
       <c r="M12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N12" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O12" t="s">
         <v>36</v>
@@ -3305,13 +3347,13 @@
         <v>36</v>
       </c>
       <c r="R12" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="S12" t="s">
         <v>36</v>
       </c>
       <c r="T12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U12" t="s">
         <v>36</v>
@@ -3323,7 +3365,7 @@
         <v>36</v>
       </c>
       <c r="X12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Y12" t="s">
         <v>36</v>
@@ -3358,7 +3400,7 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -3394,10 +3436,10 @@
         <v>36</v>
       </c>
       <c r="M13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O13" t="s">
         <v>36</v>
@@ -3409,25 +3451,25 @@
         <v>36</v>
       </c>
       <c r="R13" t="s">
+        <v>87</v>
+      </c>
+      <c r="S13" t="s">
+        <v>36</v>
+      </c>
+      <c r="T13" t="s">
         <v>91</v>
       </c>
-      <c r="S13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
+        <v>36</v>
+      </c>
+      <c r="V13" t="s">
+        <v>36</v>
+      </c>
+      <c r="W13" t="s">
+        <v>36</v>
+      </c>
+      <c r="X13" t="s">
         <v>92</v>
-      </c>
-      <c r="U13" t="s">
-        <v>36</v>
-      </c>
-      <c r="V13" t="s">
-        <v>36</v>
-      </c>
-      <c r="W13" t="s">
-        <v>36</v>
-      </c>
-      <c r="X13" t="s">
-        <v>93</v>
       </c>
       <c r="Y13" t="s">
         <v>36</v>
@@ -3462,7 +3504,7 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
@@ -3498,7 +3540,7 @@
         <v>36</v>
       </c>
       <c r="M14" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="N14" t="s">
         <v>95</v>
@@ -3602,7 +3644,7 @@
         <v>36</v>
       </c>
       <c r="M15" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="N15" t="s">
         <v>100</v>
@@ -3706,7 +3748,7 @@
         <v>36</v>
       </c>
       <c r="M16" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="N16" t="s">
         <v>105</v>
@@ -3810,7 +3852,7 @@
         <v>36</v>
       </c>
       <c r="M17" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="N17" t="s">
         <v>105</v>
@@ -7138,29 +7180,29 @@
         <v>36</v>
       </c>
       <c r="M49" t="s">
+        <v>36</v>
+      </c>
+      <c r="N49" t="s">
         <v>253</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
+        <v>36</v>
+      </c>
+      <c r="P49" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>36</v>
+      </c>
+      <c r="R49" t="s">
         <v>254</v>
       </c>
-      <c r="O49" t="s">
-        <v>36</v>
-      </c>
-      <c r="P49" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>36</v>
-      </c>
-      <c r="R49" t="s">
+      <c r="S49" t="s">
+        <v>36</v>
+      </c>
+      <c r="T49" t="s">
         <v>255</v>
       </c>
-      <c r="S49" t="s">
-        <v>36</v>
-      </c>
-      <c r="T49" t="s">
-        <v>173</v>
-      </c>
       <c r="U49" t="s">
         <v>36</v>
       </c>
@@ -7171,7 +7213,7 @@
         <v>36</v>
       </c>
       <c r="X49" t="s">
-        <v>36</v>
+        <v>179</v>
       </c>
       <c r="Y49" t="s">
         <v>36</v>
@@ -7245,72 +7287,72 @@
         <v>36</v>
       </c>
       <c r="N50" t="s">
+        <v>253</v>
+      </c>
+      <c r="O50" t="s">
+        <v>36</v>
+      </c>
+      <c r="P50" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>36</v>
+      </c>
+      <c r="R50" t="s">
         <v>258</v>
       </c>
-      <c r="O50" t="s">
-        <v>36</v>
-      </c>
-      <c r="P50" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>36</v>
-      </c>
-      <c r="R50" t="s">
+      <c r="S50" t="s">
+        <v>36</v>
+      </c>
+      <c r="T50" t="s">
+        <v>173</v>
+      </c>
+      <c r="U50" t="s">
+        <v>36</v>
+      </c>
+      <c r="V50" t="s">
+        <v>36</v>
+      </c>
+      <c r="W50" t="s">
+        <v>36</v>
+      </c>
+      <c r="X50" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH50" t="s">
         <v>259</v>
-      </c>
-      <c r="S50" t="s">
-        <v>36</v>
-      </c>
-      <c r="T50" t="s">
-        <v>260</v>
-      </c>
-      <c r="U50" t="s">
-        <v>36</v>
-      </c>
-      <c r="V50" t="s">
-        <v>36</v>
-      </c>
-      <c r="W50" t="s">
-        <v>36</v>
-      </c>
-      <c r="X50" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB50" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC50" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD50" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE50" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF50" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG50" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH50" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B51" t="s">
         <v>35</v>
@@ -7349,7 +7391,7 @@
         <v>36</v>
       </c>
       <c r="N51" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="O51" t="s">
         <v>36</v>
@@ -7361,13 +7403,13 @@
         <v>36</v>
       </c>
       <c r="R51" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="S51" t="s">
         <v>36</v>
       </c>
       <c r="T51" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="U51" t="s">
         <v>36</v>
@@ -7409,12 +7451,12 @@
         <v>36</v>
       </c>
       <c r="AH51" t="s">
-        <v>264</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B52" t="s">
         <v>35</v>
@@ -7453,7 +7495,7 @@
         <v>36</v>
       </c>
       <c r="N52" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="O52" t="s">
         <v>36</v>
@@ -7465,13 +7507,13 @@
         <v>36</v>
       </c>
       <c r="R52" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="S52" t="s">
         <v>36</v>
       </c>
       <c r="T52" t="s">
-        <v>138</v>
+        <v>264</v>
       </c>
       <c r="U52" t="s">
         <v>36</v>
@@ -7483,7 +7525,7 @@
         <v>36</v>
       </c>
       <c r="X52" t="s">
-        <v>36</v>
+        <v>265</v>
       </c>
       <c r="Y52" t="s">
         <v>36</v>
@@ -7518,7 +7560,7 @@
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B53" t="s">
         <v>35</v>
@@ -7557,7 +7599,7 @@
         <v>36</v>
       </c>
       <c r="N53" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="O53" t="s">
         <v>36</v>
@@ -7765,37 +7807,37 @@
         <v>36</v>
       </c>
       <c r="N55" t="s">
+        <v>272</v>
+      </c>
+      <c r="O55" t="s">
+        <v>36</v>
+      </c>
+      <c r="P55" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>36</v>
+      </c>
+      <c r="R55" t="s">
+        <v>273</v>
+      </c>
+      <c r="S55" t="s">
+        <v>36</v>
+      </c>
+      <c r="T55" t="s">
         <v>277</v>
       </c>
-      <c r="O55" t="s">
-        <v>36</v>
-      </c>
-      <c r="P55" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>36</v>
-      </c>
-      <c r="R55" t="s">
+      <c r="U55" t="s">
+        <v>36</v>
+      </c>
+      <c r="V55" t="s">
+        <v>36</v>
+      </c>
+      <c r="W55" t="s">
+        <v>36</v>
+      </c>
+      <c r="X55" t="s">
         <v>278</v>
-      </c>
-      <c r="S55" t="s">
-        <v>36</v>
-      </c>
-      <c r="T55" t="s">
-        <v>279</v>
-      </c>
-      <c r="U55" t="s">
-        <v>36</v>
-      </c>
-      <c r="V55" t="s">
-        <v>36</v>
-      </c>
-      <c r="W55" t="s">
-        <v>36</v>
-      </c>
-      <c r="X55" t="s">
-        <v>280</v>
       </c>
       <c r="Y55" t="s">
         <v>36</v>
@@ -7830,7 +7872,7 @@
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B56" t="s">
         <v>35</v>
@@ -7869,7 +7911,7 @@
         <v>36</v>
       </c>
       <c r="N56" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="O56" t="s">
         <v>36</v>
@@ -7881,13 +7923,13 @@
         <v>36</v>
       </c>
       <c r="R56" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="S56" t="s">
         <v>36</v>
       </c>
       <c r="T56" t="s">
-        <v>282</v>
+        <v>173</v>
       </c>
       <c r="U56" t="s">
         <v>36</v>
@@ -7899,7 +7941,7 @@
         <v>36</v>
       </c>
       <c r="X56" t="s">
-        <v>283</v>
+        <v>36</v>
       </c>
       <c r="Y56" t="s">
         <v>36</v>
@@ -7934,7 +7976,7 @@
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B57" t="s">
         <v>35</v>
@@ -7973,37 +8015,37 @@
         <v>36</v>
       </c>
       <c r="N57" t="s">
+        <v>280</v>
+      </c>
+      <c r="O57" t="s">
+        <v>36</v>
+      </c>
+      <c r="P57" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>36</v>
+      </c>
+      <c r="R57" t="s">
+        <v>283</v>
+      </c>
+      <c r="S57" t="s">
+        <v>36</v>
+      </c>
+      <c r="T57" t="s">
+        <v>284</v>
+      </c>
+      <c r="U57" t="s">
+        <v>36</v>
+      </c>
+      <c r="V57" t="s">
+        <v>36</v>
+      </c>
+      <c r="W57" t="s">
+        <v>36</v>
+      </c>
+      <c r="X57" t="s">
         <v>285</v>
-      </c>
-      <c r="O57" t="s">
-        <v>36</v>
-      </c>
-      <c r="P57" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>36</v>
-      </c>
-      <c r="R57" t="s">
-        <v>286</v>
-      </c>
-      <c r="S57" t="s">
-        <v>36</v>
-      </c>
-      <c r="T57" t="s">
-        <v>173</v>
-      </c>
-      <c r="U57" t="s">
-        <v>36</v>
-      </c>
-      <c r="V57" t="s">
-        <v>36</v>
-      </c>
-      <c r="W57" t="s">
-        <v>36</v>
-      </c>
-      <c r="X57" t="s">
-        <v>36</v>
       </c>
       <c r="Y57" t="s">
         <v>36</v>
@@ -8038,7 +8080,7 @@
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B58" t="s">
         <v>35</v>
@@ -8077,7 +8119,7 @@
         <v>36</v>
       </c>
       <c r="N58" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="O58" t="s">
         <v>36</v>
@@ -8107,7 +8149,7 @@
         <v>36</v>
       </c>
       <c r="X58" t="s">
-        <v>290</v>
+        <v>197</v>
       </c>
       <c r="Y58" t="s">
         <v>36</v>
@@ -8142,7 +8184,7 @@
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B59" t="s">
         <v>35</v>
@@ -8181,67 +8223,67 @@
         <v>36</v>
       </c>
       <c r="N59" t="s">
+        <v>291</v>
+      </c>
+      <c r="O59" t="s">
+        <v>36</v>
+      </c>
+      <c r="P59" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>36</v>
+      </c>
+      <c r="R59" t="s">
         <v>292</v>
       </c>
-      <c r="O59" t="s">
-        <v>36</v>
-      </c>
-      <c r="P59" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>36</v>
-      </c>
-      <c r="R59" t="s">
+      <c r="S59" t="s">
+        <v>36</v>
+      </c>
+      <c r="T59" t="s">
         <v>293</v>
       </c>
-      <c r="S59" t="s">
-        <v>36</v>
-      </c>
-      <c r="T59" t="s">
+      <c r="U59" t="s">
+        <v>36</v>
+      </c>
+      <c r="V59" t="s">
+        <v>36</v>
+      </c>
+      <c r="W59" t="s">
+        <v>36</v>
+      </c>
+      <c r="X59" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH59" t="s">
         <v>294</v>
-      </c>
-      <c r="U59" t="s">
-        <v>36</v>
-      </c>
-      <c r="V59" t="s">
-        <v>36</v>
-      </c>
-      <c r="W59" t="s">
-        <v>36</v>
-      </c>
-      <c r="X59" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z59" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA59" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB59" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC59" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD59" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE59" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF59" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG59" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH59" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.25">
@@ -8282,10 +8324,10 @@
         <v>36</v>
       </c>
       <c r="M60" t="s">
-        <v>36</v>
+        <v>296</v>
       </c>
       <c r="N60" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O60" t="s">
         <v>36</v>
@@ -8297,13 +8339,13 @@
         <v>36</v>
       </c>
       <c r="R60" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="S60" t="s">
         <v>36</v>
       </c>
       <c r="T60" t="s">
-        <v>298</v>
+        <v>173</v>
       </c>
       <c r="U60" t="s">
         <v>36</v>
@@ -8315,7 +8357,7 @@
         <v>36</v>
       </c>
       <c r="X60" t="s">
-        <v>179</v>
+        <v>36</v>
       </c>
       <c r="Y60" t="s">
         <v>36</v>
@@ -8386,7 +8428,7 @@
         <v>36</v>
       </c>
       <c r="M61" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="N61" t="s">
         <v>301</v>
@@ -8419,7 +8461,7 @@
         <v>36</v>
       </c>
       <c r="X61" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="Y61" t="s">
         <v>36</v>
@@ -8490,7 +8532,7 @@
         <v>36</v>
       </c>
       <c r="M62" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="N62" t="s">
         <v>301</v>
@@ -9251,7 +9293,7 @@
         <v>36</v>
       </c>
       <c r="X69" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="Y69" t="s">
         <v>36</v>
@@ -9824,58 +9866,58 @@
         <v>36</v>
       </c>
       <c r="G75" t="s">
+        <v>167</v>
+      </c>
+      <c r="H75" t="s">
+        <v>339</v>
+      </c>
+      <c r="I75" t="s">
+        <v>36</v>
+      </c>
+      <c r="J75" t="s">
         <v>356</v>
       </c>
-      <c r="H75" t="s">
+      <c r="K75" t="s">
+        <v>36</v>
+      </c>
+      <c r="L75" t="s">
+        <v>36</v>
+      </c>
+      <c r="M75" t="s">
+        <v>36</v>
+      </c>
+      <c r="N75" t="s">
         <v>357</v>
       </c>
-      <c r="I75" t="s">
-        <v>36</v>
-      </c>
-      <c r="J75" t="s">
+      <c r="O75" t="s">
+        <v>36</v>
+      </c>
+      <c r="P75" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>36</v>
+      </c>
+      <c r="R75" t="s">
         <v>358</v>
       </c>
-      <c r="K75" t="s">
-        <v>36</v>
-      </c>
-      <c r="L75" t="s">
-        <v>36</v>
-      </c>
-      <c r="M75" t="s">
-        <v>36</v>
-      </c>
-      <c r="N75" t="s">
+      <c r="S75" t="s">
+        <v>36</v>
+      </c>
+      <c r="T75" t="s">
         <v>359</v>
       </c>
-      <c r="O75" t="s">
-        <v>36</v>
-      </c>
-      <c r="P75" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>36</v>
-      </c>
-      <c r="R75" t="s">
+      <c r="U75" t="s">
+        <v>36</v>
+      </c>
+      <c r="V75" t="s">
+        <v>36</v>
+      </c>
+      <c r="W75" t="s">
+        <v>36</v>
+      </c>
+      <c r="X75" t="s">
         <v>360</v>
-      </c>
-      <c r="S75" t="s">
-        <v>36</v>
-      </c>
-      <c r="T75" t="s">
-        <v>361</v>
-      </c>
-      <c r="U75" t="s">
-        <v>36</v>
-      </c>
-      <c r="V75" t="s">
-        <v>36</v>
-      </c>
-      <c r="W75" t="s">
-        <v>36</v>
-      </c>
-      <c r="X75" t="s">
-        <v>362</v>
       </c>
       <c r="Y75" t="s">
         <v>36</v>
@@ -9910,7 +9952,7 @@
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B76" t="s">
         <v>35</v>
@@ -9928,16 +9970,16 @@
         <v>36</v>
       </c>
       <c r="G76" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="H76" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="I76" t="s">
         <v>36</v>
       </c>
       <c r="J76" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="K76" t="s">
         <v>36</v>
@@ -9949,7 +9991,7 @@
         <v>36</v>
       </c>
       <c r="N76" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O76" t="s">
         <v>36</v>
@@ -9961,13 +10003,13 @@
         <v>36</v>
       </c>
       <c r="R76" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="S76" t="s">
         <v>36</v>
       </c>
       <c r="T76" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="U76" t="s">
         <v>36</v>
@@ -9979,7 +10021,7 @@
         <v>36</v>
       </c>
       <c r="X76" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Y76" t="s">
         <v>36</v>
@@ -10014,7 +10056,7 @@
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B77" t="s">
         <v>35</v>
@@ -10032,16 +10074,16 @@
         <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="H77" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="I77" t="s">
         <v>36</v>
       </c>
       <c r="J77" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="K77" t="s">
         <v>36</v>
@@ -10053,10 +10095,10 @@
         <v>36</v>
       </c>
       <c r="N77" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O77" t="s">
-        <v>370</v>
+        <v>36</v>
       </c>
       <c r="P77" t="s">
         <v>36</v>
@@ -10113,6 +10155,110 @@
         <v>36</v>
       </c>
       <c r="AH77" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>374</v>
+      </c>
+      <c r="B78" t="s">
+        <v>35</v>
+      </c>
+      <c r="C78" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" t="s">
+        <v>37</v>
+      </c>
+      <c r="E78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F78" t="s">
+        <v>36</v>
+      </c>
+      <c r="G78" t="s">
+        <v>362</v>
+      </c>
+      <c r="H78" t="s">
+        <v>363</v>
+      </c>
+      <c r="I78" t="s">
+        <v>36</v>
+      </c>
+      <c r="J78" t="s">
+        <v>364</v>
+      </c>
+      <c r="K78" t="s">
+        <v>36</v>
+      </c>
+      <c r="L78" t="s">
+        <v>36</v>
+      </c>
+      <c r="M78" t="s">
+        <v>36</v>
+      </c>
+      <c r="N78" t="s">
+        <v>375</v>
+      </c>
+      <c r="O78" t="s">
+        <v>376</v>
+      </c>
+      <c r="P78" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>36</v>
+      </c>
+      <c r="R78" t="s">
+        <v>377</v>
+      </c>
+      <c r="S78" t="s">
+        <v>36</v>
+      </c>
+      <c r="T78" t="s">
+        <v>378</v>
+      </c>
+      <c r="U78" t="s">
+        <v>36</v>
+      </c>
+      <c r="V78" t="s">
+        <v>36</v>
+      </c>
+      <c r="W78" t="s">
+        <v>36</v>
+      </c>
+      <c r="X78" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH78" t="s">
         <v>36</v>
       </c>
     </row>
@@ -10124,494 +10270,503 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FA2"/>
+  <dimension ref="A1:FD2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:157" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C1" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="D1" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="E1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F1" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="G1" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="H1" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="I1" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="J1" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="K1" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="L1" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="M1" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="N1" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="O1" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="P1" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="Q1" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="R1" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="S1" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="T1" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="U1" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="V1" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="W1" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="X1" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="Y1" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="Z1" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="AA1" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="AB1" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="AC1" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="AD1" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="AE1" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="AF1" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="AG1" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="AH1" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="AI1" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="AJ1" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="AK1" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="AL1" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="AM1" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="AN1" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="AO1" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="AP1" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="AQ1" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="AR1" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="AS1" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="AT1" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="AU1" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="AV1" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="AW1" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="AX1" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="AY1" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="AZ1" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="BA1" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="BB1" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="BC1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="BD1" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="BE1" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="BF1" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="BG1" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="BH1" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="BI1" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="BJ1" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="BK1" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="BL1" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="BM1" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="BN1" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="BO1" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="BP1" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="BQ1" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="BR1" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="BS1" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="BT1" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="BU1" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="BV1" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="BW1" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="BX1" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="BY1" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="BZ1" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="CA1" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="CB1" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="CC1" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="CD1" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="CE1" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="CF1" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="CG1" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="CH1" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="CI1" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="CJ1" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="CK1" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="CL1" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="CM1" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="CN1" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="CO1" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="CP1" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="CQ1" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="CR1" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="CS1" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="CT1" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="CU1" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="CV1" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="CW1" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="CX1" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="CY1" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="CZ1" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="DA1" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="DB1" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="DC1" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="DD1" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="DE1" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="DF1" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="DG1" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="DH1" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="DI1" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="DJ1" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="DK1" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="DL1" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="DM1" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="DN1" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="DO1" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="DP1" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="DQ1" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="DR1" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="DS1" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="DT1" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="DU1" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="DV1" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="DW1" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="DX1" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="DY1" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="DZ1" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="EA1" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="EB1" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="EC1" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="ED1" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="EE1" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="EF1" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="EG1" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="EH1" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="EI1" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="EJ1" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="EK1" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="EL1" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="EM1" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="EN1" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="EO1" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="EP1" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="EQ1" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="ER1" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="ES1" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="ET1" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="EU1" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="EV1" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="EW1" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="EX1" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="EY1" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="EZ1" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="FA1" t="s">
-        <v>529</v>
+        <v>535</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>536</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>537</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>538</v>
       </c>
     </row>
-    <row r="2" spans="1:157" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="D2" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -10623,16 +10778,16 @@
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="I2" t="s">
         <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="K2" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="L2" t="s">
         <v>36</v>
@@ -10647,7 +10802,7 @@
         <v>36</v>
       </c>
       <c r="P2" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="Q2" t="s">
         <v>36</v>
@@ -10659,13 +10814,13 @@
         <v>36</v>
       </c>
       <c r="T2" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="U2" t="s">
         <v>36</v>
       </c>
       <c r="V2" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="W2" t="s">
         <v>36</v>
@@ -10674,7 +10829,7 @@
         <v>36</v>
       </c>
       <c r="Y2" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="Z2" t="s">
         <v>36</v>
@@ -10698,7 +10853,7 @@
         <v>36</v>
       </c>
       <c r="AG2" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="AH2" t="s">
         <v>36</v>
@@ -10719,357 +10874,366 @@
         <v>36</v>
       </c>
       <c r="AN2" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="AO2" t="s">
+        <v>551</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>552</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>553</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>554</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>555</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>556</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>557</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>558</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>559</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>560</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>561</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>562</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>563</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>564</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>565</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>566</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>567</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>568</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>569</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
         <v>542</v>
       </c>
-      <c r="AP2" t="s">
-        <v>543</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>544</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>545</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>546</v>
-      </c>
-      <c r="AT2" t="s">
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>570</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>571</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>572</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>573</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>574</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>575</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>576</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>577</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>578</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>579</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ER2" t="s">
         <v>547</v>
       </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>548</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>549</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>550</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>551</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>552</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>553</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>554</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>555</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>556</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>533</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>557</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>558</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>559</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>560</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>561</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>562</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>563</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>564</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>565</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>538</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>36</v>
-      </c>
       <c r="ES2" t="s">
-        <v>566</v>
+        <v>36</v>
       </c>
       <c r="ET2" t="s">
-        <v>567</v>
+        <v>36</v>
       </c>
       <c r="EU2" t="s">
-        <v>568</v>
+        <v>36</v>
       </c>
       <c r="EV2" t="s">
-        <v>36</v>
+        <v>580</v>
       </c>
       <c r="EW2" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="EX2" t="s">
-        <v>36</v>
+        <v>582</v>
       </c>
       <c r="EY2" t="s">
         <v>36</v>
       </c>
       <c r="EZ2" t="s">
-        <v>36</v>
+        <v>583</v>
       </c>
       <c r="FA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FD2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -11089,10 +11253,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="C1" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Cnidaria.xlsx
+++ b/data/dataPaper-I-in/arphified/Cnidaria.xlsx
@@ -432,7 +432,7 @@
     <t>sp.</t>
   </si>
   <si>
-    <t>The genus Alcyonium has been documented from both the southern Gulf Islands and from Race Rocks / Browning Passage / Weynton Passage. However, these populations are genetically different and have not yet been circumscribed as species.</t>
+    <t>The genus Alcyonium has been documented from both the southern Gulf Islands and from Race Rocks / Browning Passage / Weynton Passage. These populations are genetically different though they have not yet been circumscribed as species.</t>
   </si>
   <si>
     <t>460061</t>

--- a/data/dataPaper-I-in/arphified/Cnidaria.xlsx
+++ b/data/dataPaper-I-in/arphified/Cnidaria.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2978" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2970" uniqueCount="579">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -1281,15 +1281,6 @@
     <t>order</t>
   </si>
   <si>
-    <t>suborder</t>
-  </si>
-  <si>
-    <t>infraorder</t>
-  </si>
-  <si>
-    <t>superfamily</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
@@ -1632,9 +1623,6 @@
     <t>source</t>
   </si>
   <si>
-    <t>${iNaturalistTaxonId}</t>
-  </si>
-  <si>
     <t>${gbifOccurrenceID}</t>
   </si>
   <si>
@@ -1677,15 +1665,6 @@
     <t>${order}</t>
   </si>
   <si>
-    <t>${suborder}</t>
-  </si>
-  <si>
-    <t>${infraorder}</t>
-  </si>
-  <si>
-    <t>${superfamily}</t>
-  </si>
-  <si>
     <t>${family}</t>
   </si>
   <si>
@@ -1695,7 +1674,7 @@
     <t>${subgenus}</t>
   </si>
   <si>
-    <t>${summary.Author}</t>
+    <t>${summary.authority}</t>
   </si>
   <si>
     <t>Galiano Island</t>
@@ -10270,970 +10249,946 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FD2"/>
+  <dimension ref="A1:EZ2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:156" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="B1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="J1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="R1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="S1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="T1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="U1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="V1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="W1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="X1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Y1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Z1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AA1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AB1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AC1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AD1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AE1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AH1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AI1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AJ1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AK1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AL1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AM1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AO1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AP1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AQ1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AR1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AS1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AT1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AU1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AV1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AW1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AX1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AY1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AZ1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="BA1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="BB1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="BC1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="BD1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="BE1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="BF1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="BG1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="BH1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="BI1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="BJ1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="BK1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="BL1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="BM1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BN1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BO1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BP1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BQ1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BR1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="BS1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="BT1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="BU1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="BV1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="BW1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="BX1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="BY1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="BZ1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="CA1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="CB1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="CC1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="CD1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="CE1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="CF1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="CG1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="CH1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="CI1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="CJ1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="CK1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="CL1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="CM1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="CN1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="CO1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="CP1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="CQ1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="CR1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="CS1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="CT1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="CU1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="CV1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="CW1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="CX1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="CY1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="CZ1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="DA1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="DB1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="DC1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="DD1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="DE1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="DF1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="DG1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="DH1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="DI1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="DJ1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="DK1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="DL1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="DM1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="DN1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="DO1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="DP1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="DQ1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="DR1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="DS1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="DT1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="DU1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="DV1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="DW1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="DX1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="DY1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="DZ1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="EA1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="EB1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="EC1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="ED1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="EE1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="EF1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="EG1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="EH1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="EI1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="EJ1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="EK1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="EL1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="EM1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="EN1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="EO1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="EP1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="EQ1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="ER1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="ES1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="ET1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="EU1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="EV1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="EW1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="EX1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="EY1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="EZ1" t="s">
-        <v>534</v>
-      </c>
-      <c r="FA1" t="s">
         <v>535</v>
       </c>
-      <c r="FB1" t="s">
+    </row>
+    <row r="2" spans="1:156" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>536</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="C2" t="s">
         <v>537</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="2" spans="1:160" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
         <v>539</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="J2" t="s">
         <v>540</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
         <v>541</v>
       </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>542</v>
       </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
         <v>543</v>
       </c>
-      <c r="K2" t="s">
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
         <v>544</v>
       </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
         <v>545</v>
       </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="AG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
         <v>546</v>
       </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="AN2" t="s">
         <v>547</v>
       </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AO2" t="s">
         <v>548</v>
       </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AP2" t="s">
         <v>549</v>
       </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AQ2" t="s">
         <v>550</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AR2" t="s">
         <v>551</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AS2" t="s">
         <v>552</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX2" t="s">
         <v>553</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>554</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BK2" t="s">
         <v>555</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BL2" t="s">
         <v>556</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BM2" t="s">
         <v>557</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP2" t="s">
         <v>558</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU2" t="s">
         <v>559</v>
       </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
         <v>560</v>
       </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BN2" t="s">
+      <c r="CH2" t="s">
         <v>561</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="CI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ2" t="s">
         <v>562</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>538</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
         <v>563</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT2" t="s">
         <v>564</v>
       </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
+      <c r="DU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DV2" t="s">
         <v>565</v>
       </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
+      <c r="DW2" t="s">
         <v>566</v>
       </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
+      <c r="DX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DZ2" t="s">
         <v>567</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="EA2" t="s">
         <v>568</v>
       </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
+      <c r="EB2" t="s">
         <v>569</v>
       </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>542</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EE2" t="s">
         <v>570</v>
       </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DX2" t="s">
+      <c r="EF2" t="s">
         <v>571</v>
       </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
+      <c r="EG2" t="s">
         <v>572</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>543</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ER2" t="s">
         <v>573</v>
       </c>
-      <c r="EB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ED2" t="s">
+      <c r="ES2" t="s">
         <v>574</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="ET2" t="s">
         <v>575</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EV2" t="s">
         <v>576</v>
       </c>
-      <c r="EG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>577</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>578</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>579</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>547</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>580</v>
-      </c>
       <c r="EW2" t="s">
-        <v>581</v>
+        <v>36</v>
       </c>
       <c r="EX2" t="s">
-        <v>582</v>
+        <v>36</v>
       </c>
       <c r="EY2" t="s">
         <v>36</v>
       </c>
       <c r="EZ2" t="s">
-        <v>583</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FD2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -11253,10 +11208,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="C1" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Cnidaria.xlsx
+++ b/data/dataPaper-I-in/arphified/Cnidaria.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2970" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2968" uniqueCount="577">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -1287,9 +1287,6 @@
     <t>genus</t>
   </si>
   <si>
-    <t>subgenus</t>
-  </si>
-  <si>
     <t>specificEpithet</t>
   </si>
   <si>
@@ -1669,9 +1666,6 @@
   </si>
   <si>
     <t>${genus}</t>
-  </si>
-  <si>
-    <t>${subgenus}</t>
   </si>
   <si>
     <t>${summary.authority}</t>
@@ -10249,10 +10243,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EZ2"/>
+  <dimension ref="A1:EY2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:156" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>380</v>
       </c>
@@ -10718,466 +10712,463 @@
       <c r="EY1" t="s">
         <v>534</v>
       </c>
-      <c r="EZ1" t="s">
+    </row>
+    <row r="2" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="2" spans="1:156" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>536</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
         <v>537</v>
       </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
         <v>538</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>539</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
         <v>540</v>
       </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>541</v>
       </c>
-      <c r="P2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
         <v>542</v>
       </c>
-      <c r="T2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
         <v>543</v>
       </c>
-      <c r="V2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
         <v>544</v>
       </c>
-      <c r="Y2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
         <v>545</v>
       </c>
-      <c r="AG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>546</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>547</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>548</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>549</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>550</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
         <v>551</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
         <v>552</v>
       </c>
-      <c r="AT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" t="s">
+      <c r="BJ2" t="s">
         <v>553</v>
       </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>554</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>555</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO2" t="s">
         <v>556</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
         <v>557</v>
       </c>
-      <c r="BN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" t="s">
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
         <v>558</v>
       </c>
-      <c r="BQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU2" t="s">
+      <c r="CG2" t="s">
         <v>559</v>
       </c>
-      <c r="BV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
+      <c r="CH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI2" t="s">
         <v>560</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>537</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
         <v>561</v>
       </c>
-      <c r="CI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ2" t="s">
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
         <v>562</v>
       </c>
-      <c r="CK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>538</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
+      <c r="DT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU2" t="s">
         <v>563</v>
       </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
+      <c r="DV2" t="s">
         <v>564</v>
       </c>
-      <c r="DU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DV2" t="s">
+      <c r="DW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY2" t="s">
         <v>565</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="DZ2" t="s">
         <v>566</v>
       </c>
-      <c r="DX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
+      <c r="EA2" t="s">
         <v>567</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
         <v>568</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="EE2" t="s">
         <v>569</v>
       </c>
-      <c r="EC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EE2" t="s">
+      <c r="EF2" t="s">
         <v>570</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>542</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
         <v>571</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="ER2" t="s">
         <v>572</v>
       </c>
-      <c r="EH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>543</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
+      <c r="ES2" t="s">
         <v>573</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="ET2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EU2" t="s">
         <v>574</v>
       </c>
-      <c r="ET2" t="s">
-        <v>575</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>36</v>
-      </c>
       <c r="EV2" t="s">
-        <v>576</v>
+        <v>36</v>
       </c>
       <c r="EW2" t="s">
         <v>36</v>
@@ -11186,9 +11177,6 @@
         <v>36</v>
       </c>
       <c r="EY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EZ2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -11208,10 +11196,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
